--- a/biology/Médecine/Liste_des_produits_cancérigènes_de_la_fumée_du_tabac/Liste_des_produits_cancérigènes_de_la_fumée_du_tabac.xlsx
+++ b/biology/Médecine/Liste_des_produits_cancérigènes_de_la_fumée_du_tabac/Liste_des_produits_cancérigènes_de_la_fumée_du_tabac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_produits_canc%C3%A9rig%C3%A8nes_de_la_fum%C3%A9e_du_tabac</t>
+          <t>Liste_des_produits_cancérigènes_de_la_fumée_du_tabac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tabac commercialisé dans le monde contient plus de 5000 substances chimiques intrinsèques (ex : nicotine), contaminantes (résidus de pesticides) ou additifs (introduits lors de la fabrication du tabac, de la cigarette...)[1]. 
-Selon le Département de la Santé et des Services sociaux des États-Unis[2], parmi les cancérigènes mesurés dans la fumée de tabac figurent au moins les produits suivants :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tabac commercialisé dans le monde contient plus de 5000 substances chimiques intrinsèques (ex : nicotine), contaminantes (résidus de pesticides) ou additifs (introduits lors de la fabrication du tabac, de la cigarette...). 
+Selon le Département de la Santé et des Services sociaux des États-Unis, parmi les cancérigènes mesurés dans la fumée de tabac figurent au moins les produits suivants :
 </t>
         </is>
       </c>
